--- a/data/trans_bre/P1438_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1438_2023-Provincia-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.952619000317235</v>
+        <v>-2.011417154847703</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.4759308626784412</v>
+        <v>-0.5042710343800538</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.375812248210794</v>
+        <v>2.36047856477089</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.353568377266304</v>
+        <v>1.440820002797975</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2608646657891403</v>
+        <v>0.08797424628792123</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08789775464439273</v>
+        <v>-0.02229095274404594</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.382034752912563</v>
+        <v>5.457508090692318</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.630655652703245</v>
+        <v>1.689536887170834</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>7.049705350210414</v>
+        <v>7.049705350210417</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.7152055522656272</v>
+        <v>0.7152055522656274</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.939760720288996</v>
+        <v>3.016673399218392</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.217359703530127</v>
+        <v>0.2533279796078381</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.06330745745085</v>
+        <v>11.34588977201902</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.367620547222381</v>
+        <v>1.496260284975901</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.076820923090116</v>
+        <v>3.076820923090119</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6732560781187296</v>
+        <v>0.6732560781187303</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1059728583929692</v>
+        <v>-0.02881825333961339</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06999319857191573</v>
+        <v>-0.04343612164247065</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.987584579489432</v>
+        <v>5.941090759365625</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.057766856688844</v>
+        <v>2.060922079546248</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.946313682451088</v>
+        <v>4.946313682451085</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>1.383608813377126</v>
+        <v>1.383608813377125</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.809216230935206</v>
+        <v>1.838169775520431</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.2863781251894065</v>
+        <v>0.2236640838884567</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.148385558714805</v>
+        <v>8.459583261490016</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3.672067543247032</v>
+        <v>3.920855616176398</v>
       </c>
     </row>
     <row r="19">
@@ -785,7 +785,7 @@
         <v>6.184956226517343</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.4598075729376792</v>
+        <v>0.4598075729376793</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.578150672656365</v>
+        <v>1.58131120503081</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07626377745819528</v>
+        <v>0.0792896555705269</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.27885191997131</v>
+        <v>10.93943661417742</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.010140252483429</v>
+        <v>0.960410818895257</v>
       </c>
     </row>
     <row r="22">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>5.422293830619415</v>
+        <v>5.422293830619418</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1.635986575098755</v>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.199832552770685</v>
+        <v>3.210330779671756</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.704874477607436</v>
+        <v>0.6613961896490805</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.734788137550384</v>
+        <v>7.561992772784181</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>3.37070698076633</v>
+        <v>3.148114206805792</v>
       </c>
     </row>
     <row r="25">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>2.686271936138652</v>
+        <v>2.686271936138653</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1.520368095855875</v>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.218456165159634</v>
+        <v>1.326324898718672</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4190272764426358</v>
+        <v>0.4781271513787109</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.191910276192038</v>
+        <v>4.10776175474549</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.651187866842188</v>
+        <v>3.791771530564822</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>3.891631031167283</v>
+        <v>3.891631031167284</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.8388071596284032</v>
+        <v>0.8388071596284036</v>
       </c>
     </row>
     <row r="29">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.765739246756556</v>
+        <v>2.853124286395485</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.5278852729055046</v>
+        <v>0.5533971891575004</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.829523612248877</v>
+        <v>4.826236154126687</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1.14283260073516</v>
+        <v>1.159188379955158</v>
       </c>
     </row>
     <row r="31">
